--- a/output/2014.xlsx
+++ b/output/2014.xlsx
@@ -979,14 +979,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>北京银行</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2042.89209</v>
+        <v>15244.37</v>
       </c>
       <c r="I17" t="n">
-        <v>67.95500373840332</v>
+        <v>52.02613754272461</v>
       </c>
     </row>
     <row r="18">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I25" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="26">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1551.63386</v>
+        <v>3002.29738</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5081771850586</v>
+        <v>67.50342330932617</v>
       </c>
     </row>
     <row r="32">
@@ -1734,14 +1734,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1551.63386</v>
+        <v>3002.29738</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5081771850586</v>
+        <v>67.50342330932617</v>
       </c>
     </row>
     <row r="43">
@@ -1852,14 +1852,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I46" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="47">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I71" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="72">
@@ -2654,14 +2654,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I72" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="73">
@@ -3833,14 +3833,14 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>6341.39698</v>
+        <v>6699.57446</v>
       </c>
       <c r="I109" t="n">
-        <v>70.45358734130859</v>
+        <v>72.91541137695313</v>
       </c>
     </row>
     <row r="110">
@@ -4234,14 +4234,14 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1551.63386</v>
+        <v>3002.29738</v>
       </c>
       <c r="I122" t="n">
-        <v>66.5081771850586</v>
+        <v>67.50342330932617</v>
       </c>
     </row>
     <row r="123">
@@ -4470,14 +4470,14 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>广东南粤银行</t>
+          <t>兰州银行</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>1436.3699517</v>
+        <v>1551.63386</v>
       </c>
       <c r="I130" t="n">
-        <v>66.19281425476075</v>
+        <v>66.5081771850586</v>
       </c>
     </row>
     <row r="131">
@@ -4701,14 +4701,14 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>1551.63386</v>
+        <v>3002.29738</v>
       </c>
       <c r="I137" t="n">
-        <v>66.5081771850586</v>
+        <v>67.50342330932617</v>
       </c>
     </row>
     <row r="138">
@@ -4833,14 +4833,14 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>北京农村商业银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>5229.4618</v>
+        <v>3436.41618</v>
       </c>
       <c r="I141" t="n">
-        <v>68.51319808959961</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="142">
@@ -4866,14 +4866,14 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>江苏江南农村商业银行</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>3436.41618</v>
+        <v>1949.7448737374</v>
       </c>
       <c r="I142" t="n">
-        <v>68.71506195068359</v>
+        <v>69.74030914306641</v>
       </c>
     </row>
     <row r="143">
@@ -4932,14 +4932,14 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>21864.59</v>
+        <v>6671.47543</v>
       </c>
       <c r="I144" t="n">
-        <v>79.38030853271485</v>
+        <v>72.65290908813476</v>
       </c>
     </row>
     <row r="145">
@@ -5064,14 +5064,14 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>21864.59</v>
+        <v>6671.47543</v>
       </c>
       <c r="I148" t="n">
-        <v>79.38030853271485</v>
+        <v>72.65290908813476</v>
       </c>
     </row>
     <row r="149">
@@ -5130,14 +5130,14 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>6184.48861</v>
+        <v>4827.64314</v>
       </c>
       <c r="I150" t="n">
-        <v>54.95615844726562</v>
+        <v>69.11509628295899</v>
       </c>
     </row>
     <row r="151">
@@ -5196,14 +5196,14 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I152" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="153">
@@ -5229,14 +5229,14 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>长安银行</t>
+          <t>张家港行</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1264.1764977396</v>
+        <v>719.7022512136</v>
       </c>
       <c r="I153" t="n">
-        <v>64.97172393798829</v>
+        <v>63.48252372741699</v>
       </c>
     </row>
     <row r="154">
@@ -5262,14 +5262,14 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>21864.59</v>
+        <v>6671.47543</v>
       </c>
       <c r="I154" t="n">
-        <v>79.38030853271485</v>
+        <v>72.65290908813476</v>
       </c>
     </row>
     <row r="155">
@@ -5347,14 +5347,14 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>锦州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>2506.9272</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I157" t="n">
-        <v>67.25723533630371</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="158">
@@ -5380,14 +5380,14 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>湖北银行</t>
+          <t>泉州银行</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1212.8469366811</v>
+        <v>607.7866890483999</v>
       </c>
       <c r="I158" t="n">
-        <v>63.34247779846191</v>
+        <v>63.66039505004883</v>
       </c>
     </row>
     <row r="159">
@@ -5413,14 +5413,14 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>3436.41618</v>
+        <v>1561.65941</v>
       </c>
       <c r="I159" t="n">
-        <v>68.71506195068359</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="160">
@@ -5833,14 +5833,14 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>21864.59</v>
+        <v>6671.47543</v>
       </c>
       <c r="I173" t="n">
-        <v>79.38030853271485</v>
+        <v>72.65290908813476</v>
       </c>
     </row>
     <row r="174">
@@ -6097,14 +6097,14 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>21864.59</v>
+        <v>6671.47543</v>
       </c>
       <c r="I181" t="n">
-        <v>79.38030853271485</v>
+        <v>72.65290908813476</v>
       </c>
     </row>
     <row r="182">
@@ -6588,14 +6588,14 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>1551.63386</v>
+        <v>3002.29738</v>
       </c>
       <c r="I198" t="n">
-        <v>66.5081771850586</v>
+        <v>67.50342330932617</v>
       </c>
     </row>
     <row r="199">
@@ -6852,14 +6852,14 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>兰州银行</t>
+          <t>成都银行</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>1551.63386</v>
+        <v>3002.29738</v>
       </c>
       <c r="I206" t="n">
-        <v>66.5081771850586</v>
+        <v>67.50342330932617</v>
       </c>
     </row>
     <row r="207">
@@ -7187,14 +7187,14 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>日照银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>730.7294123319999</v>
+        <v>1262.8263062452</v>
       </c>
       <c r="I217" t="n">
-        <v>63.6976879119873</v>
+        <v>63.51865386962891</v>
       </c>
     </row>
     <row r="218">
@@ -7734,14 +7734,14 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>6699.57446</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I234" t="n">
-        <v>72.91541137695313</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="235">
@@ -7800,14 +7800,14 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>6699.57446</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I236" t="n">
-        <v>72.91541137695313</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="237">
@@ -7866,14 +7866,14 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>6699.57446</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I238" t="n">
-        <v>72.91541137695313</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="239">
@@ -8064,14 +8064,14 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I244" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="245">
@@ -8517,14 +8517,14 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I259" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="260">
@@ -8899,14 +8899,14 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H271" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I271" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="272">
@@ -9064,14 +9064,14 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>齐商银行</t>
+          <t>潍坊银行</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>707.3399247169999</v>
+        <v>823.2967368071</v>
       </c>
       <c r="I276" t="n">
-        <v>63.731884765625</v>
+        <v>62.68407516479492</v>
       </c>
     </row>
     <row r="277">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H281" t="n">
-        <v>5541.12618</v>
+        <v>4827.64314</v>
       </c>
       <c r="I281" t="n">
-        <v>68.65181198120118</v>
+        <v>69.11509628295899</v>
       </c>
     </row>
     <row r="282">
@@ -9328,14 +9328,14 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>江苏盱眙农村商业银行</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>4666.07619</v>
+        <v>101.5883382839</v>
       </c>
       <c r="I284" t="n">
-        <v>62.13483047485352</v>
+        <v>60.93793449401856</v>
       </c>
     </row>
     <row r="285">
@@ -9394,14 +9394,14 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>齐商银行</t>
+          <t>潍坊银行</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>707.3399247169999</v>
+        <v>823.2967368071</v>
       </c>
       <c r="I286" t="n">
-        <v>63.731884765625</v>
+        <v>62.68407516479492</v>
       </c>
     </row>
     <row r="287">
@@ -10428,14 +10428,14 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H322" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I322" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="323">
@@ -10494,14 +10494,14 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H324" t="n">
-        <v>6699.57446</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I324" t="n">
-        <v>72.91541137695313</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="325">
@@ -10560,14 +10560,14 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>浙商银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H326" t="n">
-        <v>6699.57446</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I326" t="n">
-        <v>72.91541137695313</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="327">
@@ -10659,14 +10659,14 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H329" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I329" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="330">
@@ -11206,14 +11206,14 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H346" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I346" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="347">
@@ -11433,14 +11433,14 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H355" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I355" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="356">
@@ -11466,14 +11466,14 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H356" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I356" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="357">
@@ -11716,14 +11716,14 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H364" t="n">
-        <v>6341.39698</v>
+        <v>6699.57446</v>
       </c>
       <c r="I364" t="n">
-        <v>70.45358734130859</v>
+        <v>72.91541137695313</v>
       </c>
     </row>
     <row r="365">
@@ -12112,14 +12112,14 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H376" t="n">
-        <v>5541.12618</v>
+        <v>4827.64314</v>
       </c>
       <c r="I376" t="n">
-        <v>68.65181198120118</v>
+        <v>69.11509628295899</v>
       </c>
     </row>
     <row r="377">
@@ -13079,14 +13079,14 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>广东南海农村商业银行</t>
+          <t>杭州联合银行</t>
         </is>
       </c>
       <c r="H407" t="n">
-        <v>1205.7176072725</v>
+        <v>1098.64408794</v>
       </c>
       <c r="I407" t="n">
-        <v>62.88274269104004</v>
+        <v>62.70260467529297</v>
       </c>
     </row>
     <row r="408">
@@ -13428,14 +13428,14 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>广东南海农村商业银行</t>
+          <t>厦门农村商业银行</t>
         </is>
       </c>
       <c r="H418" t="n">
-        <v>1205.7176072725</v>
+        <v>625.65008</v>
       </c>
       <c r="I418" t="n">
-        <v>62.88274269104004</v>
+        <v>63.37616195678711</v>
       </c>
     </row>
     <row r="419">
@@ -13527,14 +13527,14 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>承德银行</t>
         </is>
       </c>
       <c r="H421" t="n">
-        <v>4788.59079</v>
+        <v>439.4455167056</v>
       </c>
       <c r="I421" t="n">
-        <v>69.39429092407227</v>
+        <v>62.06152725219727</v>
       </c>
     </row>
     <row r="422">
@@ -15942,14 +15942,14 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>承德银行</t>
         </is>
       </c>
       <c r="H498" t="n">
-        <v>4788.59079</v>
+        <v>439.4455167056</v>
       </c>
       <c r="I498" t="n">
-        <v>69.39429092407227</v>
+        <v>62.06152725219727</v>
       </c>
     </row>
     <row r="499">
@@ -15975,14 +15975,14 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H499" t="n">
-        <v>6341.39698</v>
+        <v>6699.57446</v>
       </c>
       <c r="I499" t="n">
-        <v>70.45358734130859</v>
+        <v>72.91541137695313</v>
       </c>
     </row>
     <row r="500">
@@ -16263,14 +16263,14 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H509" t="n">
-        <v>2837.8319964715</v>
+        <v>1561.65941</v>
       </c>
       <c r="I509" t="n">
-        <v>68.11739959716797</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="510">
@@ -16362,14 +16362,14 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>锦州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H512" t="n">
-        <v>2506.9272</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I512" t="n">
-        <v>67.25723533630371</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="513">
@@ -16476,14 +16476,14 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>重庆农村商业银行</t>
+          <t>盛京银行</t>
         </is>
       </c>
       <c r="H516" t="n">
-        <v>6184.48861</v>
+        <v>5033.70514</v>
       </c>
       <c r="I516" t="n">
-        <v>54.95615844726562</v>
+        <v>70.37342834472656</v>
       </c>
     </row>
     <row r="517">
@@ -16542,14 +16542,14 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H518" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I518" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="519">
@@ -16608,14 +16608,14 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>锦州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H520" t="n">
-        <v>2506.9272</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I520" t="n">
-        <v>67.25723533630371</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="521">
@@ -16839,14 +16839,14 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H527" t="n">
-        <v>2837.8319964715</v>
+        <v>1561.65941</v>
       </c>
       <c r="I527" t="n">
-        <v>68.11739959716797</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="528">
@@ -17046,14 +17046,14 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H534" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I534" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="535">
@@ -17538,14 +17538,14 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H550" t="n">
-        <v>6341.39698</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I550" t="n">
-        <v>70.45358734130859</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="551">
@@ -17703,14 +17703,14 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>浙江泰隆商业银行</t>
+          <t>宁波鄞州农村商业银行</t>
         </is>
       </c>
       <c r="H555" t="n">
-        <v>868.5822035986999</v>
+        <v>902.4548359486</v>
       </c>
       <c r="I555" t="n">
-        <v>62.28359870910644</v>
+        <v>62.55750007629395</v>
       </c>
     </row>
     <row r="556">
@@ -17769,14 +17769,14 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>浙江泰隆商业银行</t>
+          <t>宁波鄞州农村商业银行</t>
         </is>
       </c>
       <c r="H557" t="n">
-        <v>868.5822035986999</v>
+        <v>902.4548359486</v>
       </c>
       <c r="I557" t="n">
-        <v>62.28359870910644</v>
+        <v>62.55750007629395</v>
       </c>
     </row>
     <row r="558">
@@ -18316,14 +18316,14 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H574" t="n">
-        <v>1869.9151573338</v>
+        <v>3436.41618</v>
       </c>
       <c r="I574" t="n">
-        <v>68.90134773254394</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="575">
@@ -18717,14 +18717,14 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H587" t="n">
-        <v>4827.64314</v>
+        <v>3489.4089391</v>
       </c>
       <c r="I587" t="n">
-        <v>69.11509628295899</v>
+        <v>69.51011047363281</v>
       </c>
     </row>
     <row r="588">
@@ -18750,14 +18750,14 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>紫金银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H588" t="n">
-        <v>708.06853</v>
+        <v>730.7294123319999</v>
       </c>
       <c r="I588" t="n">
-        <v>63.83434829711914</v>
+        <v>63.6976879119873</v>
       </c>
     </row>
     <row r="589">
@@ -18802,14 +18802,14 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H590" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I590" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="591">
@@ -18835,14 +18835,14 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H591" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I591" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="592">
@@ -19000,14 +19000,14 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>赣州银行</t>
+          <t>齐商银行</t>
         </is>
       </c>
       <c r="H596" t="n">
-        <v>733.1840557643</v>
+        <v>707.3399247169999</v>
       </c>
       <c r="I596" t="n">
-        <v>63.55680541992187</v>
+        <v>63.731884765625</v>
       </c>
     </row>
     <row r="597">
@@ -19264,14 +19264,14 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>广东南海农村商业银行</t>
+          <t>杭州联合银行</t>
         </is>
       </c>
       <c r="H604" t="n">
-        <v>1205.7176072725</v>
+        <v>1098.64408794</v>
       </c>
       <c r="I604" t="n">
-        <v>62.88274269104004</v>
+        <v>62.70260467529297</v>
       </c>
     </row>
     <row r="605">
@@ -19759,14 +19759,14 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>广东南粤银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H619" t="n">
-        <v>1436.3699517</v>
+        <v>1264.1764977396</v>
       </c>
       <c r="I619" t="n">
-        <v>66.19281425476075</v>
+        <v>64.97172393798829</v>
       </c>
     </row>
     <row r="620">
@@ -19990,14 +19990,14 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H626" t="n">
-        <v>10383.0905</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I626" t="n">
-        <v>73.95882568359374</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="627">
@@ -20155,14 +20155,14 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>江苏银行</t>
         </is>
       </c>
       <c r="H631" t="n">
-        <v>6341.39698</v>
+        <v>10383.0905</v>
       </c>
       <c r="I631" t="n">
-        <v>70.45358734130859</v>
+        <v>73.95882568359374</v>
       </c>
     </row>
     <row r="632">
@@ -20325,14 +20325,14 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H637" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I637" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="638">
@@ -20358,14 +20358,14 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H638" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I638" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="639">
@@ -20523,14 +20523,14 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>江苏银行</t>
         </is>
       </c>
       <c r="H643" t="n">
-        <v>6341.39698</v>
+        <v>10383.0905</v>
       </c>
       <c r="I643" t="n">
-        <v>70.45358734130859</v>
+        <v>73.95882568359374</v>
       </c>
     </row>
     <row r="644">
@@ -20853,14 +20853,14 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H653" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I653" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="654">
@@ -21018,14 +21018,14 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H658" t="n">
-        <v>10383.0905</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I658" t="n">
-        <v>73.95882568359374</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="659">
@@ -21174,14 +21174,14 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H664" t="n">
-        <v>3436.41618</v>
+        <v>4788.59079</v>
       </c>
       <c r="I664" t="n">
-        <v>68.71506195068359</v>
+        <v>69.39429092407227</v>
       </c>
     </row>
     <row r="665">
@@ -21240,14 +21240,14 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>天津银行</t>
+          <t>承德银行</t>
         </is>
       </c>
       <c r="H666" t="n">
-        <v>4788.59079</v>
+        <v>439.4455167056</v>
       </c>
       <c r="I666" t="n">
-        <v>69.39429092407227</v>
+        <v>62.06152725219727</v>
       </c>
     </row>
     <row r="667">
@@ -21985,14 +21985,14 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>广东南粤银行</t>
+          <t>长安银行</t>
         </is>
       </c>
       <c r="H689" t="n">
-        <v>1436.3699517</v>
+        <v>1264.1764977396</v>
       </c>
       <c r="I689" t="n">
-        <v>66.19281425476075</v>
+        <v>64.97172393798829</v>
       </c>
     </row>
     <row r="690">
@@ -22051,14 +22051,14 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H691" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I691" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="692">
@@ -23348,14 +23348,14 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H732" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I732" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="733">
@@ -23914,14 +23914,14 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H750" t="n">
-        <v>2837.8319964715</v>
+        <v>1561.65941</v>
       </c>
       <c r="I750" t="n">
-        <v>68.11739959716797</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="751">
@@ -23947,14 +23947,14 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H751" t="n">
-        <v>2837.8319964715</v>
+        <v>1561.65941</v>
       </c>
       <c r="I751" t="n">
-        <v>68.11739959716797</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="752">
@@ -24013,14 +24013,14 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>江苏银行</t>
+          <t>渤海银行</t>
         </is>
       </c>
       <c r="H753" t="n">
-        <v>10383.0905</v>
+        <v>6671.47543</v>
       </c>
       <c r="I753" t="n">
-        <v>73.95882568359374</v>
+        <v>72.65290908813476</v>
       </c>
     </row>
     <row r="754">
@@ -24178,14 +24178,14 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>锦州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H758" t="n">
-        <v>2506.9272</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I758" t="n">
-        <v>67.25723533630371</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="759">
@@ -24211,14 +24211,14 @@
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>锦州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H759" t="n">
-        <v>2506.9272</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I759" t="n">
-        <v>67.25723533630371</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="760">
@@ -24277,14 +24277,14 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H761" t="n">
-        <v>2837.8319964715</v>
+        <v>1561.65941</v>
       </c>
       <c r="I761" t="n">
-        <v>68.11739959716797</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="762">
@@ -24310,14 +24310,14 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H762" t="n">
-        <v>2837.8319964715</v>
+        <v>1561.65941</v>
       </c>
       <c r="I762" t="n">
-        <v>68.11739959716797</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="763">
@@ -24343,14 +24343,14 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>吉林银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H763" t="n">
-        <v>2837.8319964715</v>
+        <v>1561.65941</v>
       </c>
       <c r="I763" t="n">
-        <v>68.11739959716797</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="764">
@@ -24574,14 +24574,14 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>宁夏银行</t>
+          <t>乌鲁木齐银行</t>
         </is>
       </c>
       <c r="H770" t="n">
-        <v>1038.23232</v>
+        <v>837.5453523873</v>
       </c>
       <c r="I770" t="n">
-        <v>62.68854522705078</v>
+        <v>62.34998741149902</v>
       </c>
     </row>
     <row r="771">
@@ -24607,14 +24607,14 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>宁夏银行</t>
+          <t>乌鲁木齐银行</t>
         </is>
       </c>
       <c r="H771" t="n">
-        <v>1038.23232</v>
+        <v>837.5453523873</v>
       </c>
       <c r="I771" t="n">
-        <v>62.68854522705078</v>
+        <v>62.34998741149902</v>
       </c>
     </row>
     <row r="772">
@@ -24876,14 +24876,14 @@
       </c>
       <c r="G780" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H780" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I780" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="781">
@@ -25442,14 +25442,14 @@
       </c>
       <c r="G798" t="inlineStr">
         <is>
-          <t>宁夏银行</t>
+          <t>乌鲁木齐银行</t>
         </is>
       </c>
       <c r="H798" t="n">
-        <v>1038.23232</v>
+        <v>837.5453523873</v>
       </c>
       <c r="I798" t="n">
-        <v>62.68854522705078</v>
+        <v>62.34998741149902</v>
       </c>
     </row>
     <row r="799">
@@ -25574,14 +25574,14 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H802" t="n">
-        <v>3436.41618</v>
+        <v>4788.59079</v>
       </c>
       <c r="I802" t="n">
-        <v>68.71506195068359</v>
+        <v>69.39429092407227</v>
       </c>
     </row>
     <row r="803">
@@ -25772,14 +25772,14 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H808" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I808" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="809">
@@ -25805,14 +25805,14 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H809" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I809" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="810">
@@ -26121,14 +26121,14 @@
       </c>
       <c r="G819" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H819" t="n">
-        <v>6341.39698</v>
+        <v>6699.57446</v>
       </c>
       <c r="I819" t="n">
-        <v>70.45358734130859</v>
+        <v>72.91541137695313</v>
       </c>
     </row>
     <row r="820">
@@ -26998,14 +26998,14 @@
       </c>
       <c r="G846" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>江苏盱眙农村商业银行</t>
         </is>
       </c>
       <c r="H846" t="n">
-        <v>4666.07619</v>
+        <v>101.5883382839</v>
       </c>
       <c r="I846" t="n">
-        <v>62.13483047485352</v>
+        <v>60.93793449401856</v>
       </c>
     </row>
     <row r="847">
@@ -27130,14 +27130,14 @@
       </c>
       <c r="G850" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H850" t="n">
-        <v>4853.03181</v>
+        <v>5731.50181</v>
       </c>
       <c r="I850" t="n">
-        <v>41.55971984863281</v>
+        <v>69.04257812500001</v>
       </c>
     </row>
     <row r="851">
@@ -27319,14 +27319,14 @@
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H857" t="n">
-        <v>4853.03181</v>
+        <v>5731.50181</v>
       </c>
       <c r="I857" t="n">
-        <v>41.55971984863281</v>
+        <v>69.04257812500001</v>
       </c>
     </row>
     <row r="858">
@@ -27508,14 +27508,14 @@
       </c>
       <c r="G864" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H864" t="n">
-        <v>4853.03181</v>
+        <v>5731.50181</v>
       </c>
       <c r="I864" t="n">
-        <v>41.55971984863281</v>
+        <v>69.04257812500001</v>
       </c>
     </row>
     <row r="865">
@@ -28098,14 +28098,14 @@
       </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H884" t="n">
-        <v>3436.41618</v>
+        <v>1561.65941</v>
       </c>
       <c r="I884" t="n">
-        <v>68.71506195068359</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="885">
@@ -28414,14 +28414,14 @@
       </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H894" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I894" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="895">
@@ -28447,14 +28447,14 @@
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H895" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I895" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="896">
@@ -28617,14 +28617,14 @@
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H901" t="n">
-        <v>4853.03181</v>
+        <v>5731.50181</v>
       </c>
       <c r="I901" t="n">
-        <v>41.55971984863281</v>
+        <v>69.04257812500001</v>
       </c>
     </row>
     <row r="902">
@@ -28683,14 +28683,14 @@
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H903" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I903" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="904">
@@ -29282,14 +29282,14 @@
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>邯郸银行</t>
+          <t>佛山农村商业银行</t>
         </is>
       </c>
       <c r="H922" t="n">
-        <v>818.7247051960001</v>
+        <v>606.9894845043</v>
       </c>
       <c r="I922" t="n">
-        <v>62.81036529541016</v>
+        <v>63.04416580200196</v>
       </c>
     </row>
     <row r="923">
@@ -29419,14 +29419,14 @@
       </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H927" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I927" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="928">
@@ -29584,14 +29584,14 @@
       </c>
       <c r="G932" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>江苏盱眙农村商业银行</t>
         </is>
       </c>
       <c r="H932" t="n">
-        <v>4666.07619</v>
+        <v>101.5883382839</v>
       </c>
       <c r="I932" t="n">
-        <v>62.13483047485352</v>
+        <v>60.93793449401856</v>
       </c>
     </row>
     <row r="933">
@@ -30065,14 +30065,14 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H947" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I947" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="948">
@@ -30131,14 +30131,14 @@
       </c>
       <c r="G949" t="inlineStr">
         <is>
-          <t>齐商银行</t>
+          <t>潍坊银行</t>
         </is>
       </c>
       <c r="H949" t="n">
-        <v>707.3399247169999</v>
+        <v>823.2967368071</v>
       </c>
       <c r="I949" t="n">
-        <v>63.731884765625</v>
+        <v>62.68407516479492</v>
       </c>
     </row>
     <row r="950">
@@ -30278,14 +30278,14 @@
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H956" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I956" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="957">
@@ -30651,14 +30651,14 @@
       </c>
       <c r="G969" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H969" t="n">
-        <v>5541.12618</v>
+        <v>4827.64314</v>
       </c>
       <c r="I969" t="n">
-        <v>68.65181198120118</v>
+        <v>69.11509628295899</v>
       </c>
     </row>
     <row r="970">
@@ -31552,14 +31552,14 @@
       </c>
       <c r="G998" t="inlineStr">
         <is>
-          <t>锦州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H998" t="n">
-        <v>2506.9272</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I998" t="n">
-        <v>67.25723533630371</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="999">
@@ -31585,14 +31585,14 @@
       </c>
       <c r="G999" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H999" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I999" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="1000">
@@ -32019,14 +32019,14 @@
       </c>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>四川天府银行</t>
+          <t>沪农商行</t>
         </is>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>4853.03181</v>
       </c>
       <c r="I1013" t="n">
-        <v>26.04788970947266</v>
+        <v>41.55971984863281</v>
       </c>
     </row>
     <row r="1014">
@@ -32307,14 +32307,14 @@
       </c>
       <c r="G1023" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1023" t="n">
-        <v>5541.12618</v>
+        <v>4827.64314</v>
       </c>
       <c r="I1023" t="n">
-        <v>68.65181198120118</v>
+        <v>69.11509628295899</v>
       </c>
     </row>
     <row r="1024">
@@ -32538,14 +32538,14 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1030" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1030" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1031">
@@ -33118,14 +33118,14 @@
       </c>
       <c r="G1048" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1048" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1048" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1049">
@@ -33500,14 +33500,14 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1060" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1060" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1061">
@@ -33731,14 +33731,14 @@
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>青岛银行</t>
         </is>
       </c>
       <c r="H1067" t="n">
-        <v>3436.41618</v>
+        <v>1561.65941</v>
       </c>
       <c r="I1067" t="n">
-        <v>68.71506195068359</v>
+        <v>67.51253547668458</v>
       </c>
     </row>
     <row r="1068">
@@ -33797,14 +33797,14 @@
       </c>
       <c r="G1069" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1069" t="n">
-        <v>5541.12618</v>
+        <v>4827.64314</v>
       </c>
       <c r="I1069" t="n">
-        <v>68.65181198120118</v>
+        <v>69.11509628295899</v>
       </c>
     </row>
     <row r="1070">
@@ -34755,14 +34755,14 @@
       </c>
       <c r="G1101" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1101" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1101" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1102">
@@ -35368,14 +35368,14 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>北京银行</t>
         </is>
       </c>
       <c r="H1120" t="n">
-        <v>2042.89209</v>
+        <v>15244.37</v>
       </c>
       <c r="I1120" t="n">
-        <v>67.95500373840332</v>
+        <v>52.02613754272461</v>
       </c>
     </row>
     <row r="1121">
@@ -36047,14 +36047,14 @@
       </c>
       <c r="G1141" t="inlineStr">
         <is>
-          <t>浙江泰隆商业银行</t>
+          <t>宁波鄞州农村商业银行</t>
         </is>
       </c>
       <c r="H1141" t="n">
-        <v>868.5822035986999</v>
+        <v>902.4548359486</v>
       </c>
       <c r="I1141" t="n">
-        <v>62.28359870910644</v>
+        <v>62.55750007629395</v>
       </c>
     </row>
     <row r="1142">
@@ -36539,14 +36539,14 @@
       </c>
       <c r="G1159" t="inlineStr">
         <is>
-          <t>广东南海农村商业银行</t>
+          <t>厦门农村商业银行</t>
         </is>
       </c>
       <c r="H1159" t="n">
-        <v>1205.7176072725</v>
+        <v>625.65008</v>
       </c>
       <c r="I1159" t="n">
-        <v>62.88274269104004</v>
+        <v>63.37616195678711</v>
       </c>
     </row>
     <row r="1160">
@@ -37841,14 +37841,14 @@
       </c>
       <c r="G1201" t="inlineStr">
         <is>
-          <t>齐商银行</t>
+          <t>潍坊银行</t>
         </is>
       </c>
       <c r="H1201" t="n">
-        <v>707.3399247169999</v>
+        <v>823.2967368071</v>
       </c>
       <c r="I1201" t="n">
-        <v>63.731884765625</v>
+        <v>62.68407516479492</v>
       </c>
     </row>
     <row r="1202">
@@ -38120,14 +38120,14 @@
       </c>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>成都农村商业银行</t>
+          <t>浙商银行</t>
         </is>
       </c>
       <c r="H1210" t="n">
-        <v>6341.39698</v>
+        <v>6699.57446</v>
       </c>
       <c r="I1210" t="n">
-        <v>70.45358734130859</v>
+        <v>72.91541137695313</v>
       </c>
     </row>
     <row r="1211">
@@ -38186,14 +38186,14 @@
       </c>
       <c r="G1212" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H1212" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I1212" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="1213">
@@ -38450,14 +38450,14 @@
       </c>
       <c r="G1220" t="inlineStr">
         <is>
-          <t>无锡银行</t>
+          <t>潍坊银行</t>
         </is>
       </c>
       <c r="H1220" t="n">
-        <v>1044.6309355855</v>
+        <v>823.2967368071</v>
       </c>
       <c r="I1220" t="n">
-        <v>62.37337455749512</v>
+        <v>62.68407516479492</v>
       </c>
     </row>
     <row r="1221">
@@ -39398,14 +39398,14 @@
       </c>
       <c r="G1250" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1250" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1250" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1251">
@@ -39597,14 +39597,14 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>徽商银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1257" t="n">
-        <v>4827.64314</v>
+        <v>3489.4089391</v>
       </c>
       <c r="I1257" t="n">
-        <v>69.11509628295899</v>
+        <v>69.51011047363281</v>
       </c>
     </row>
     <row r="1258">
@@ -39927,14 +39927,14 @@
       </c>
       <c r="G1267" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1267" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1267" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1268">
@@ -41728,14 +41728,14 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>杭州联合银行</t>
+          <t>无锡银行</t>
         </is>
       </c>
       <c r="H1322" t="n">
-        <v>1098.64408794</v>
+        <v>1044.6309355855</v>
       </c>
       <c r="I1322" t="n">
-        <v>62.70260467529297</v>
+        <v>62.37337455749512</v>
       </c>
     </row>
     <row r="1323">
@@ -42176,14 +42176,14 @@
       </c>
       <c r="G1336" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H1336" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I1336" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="1337">
@@ -42677,14 +42677,14 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1355" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I1355" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="1356">
@@ -42974,14 +42974,14 @@
       </c>
       <c r="G1364" t="inlineStr">
         <is>
-          <t>东莞银行</t>
+          <t>厦门国际银行</t>
         </is>
       </c>
       <c r="H1364" t="n">
-        <v>1869.9151573338</v>
+        <v>3489.4089391</v>
       </c>
       <c r="I1364" t="n">
-        <v>68.90134773254394</v>
+        <v>69.51011047363281</v>
       </c>
     </row>
     <row r="1365">
@@ -43304,14 +43304,14 @@
       </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>北京银行</t>
         </is>
       </c>
       <c r="H1374" t="n">
-        <v>2042.89209</v>
+        <v>15244.37</v>
       </c>
       <c r="I1374" t="n">
-        <v>67.95500373840332</v>
+        <v>52.02613754272461</v>
       </c>
     </row>
     <row r="1375">
@@ -43337,14 +43337,14 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1375" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1375" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1376">
@@ -43370,14 +43370,14 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1376" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1376" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1377">
@@ -43403,14 +43403,14 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1377" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1377" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1378">
@@ -43799,14 +43799,14 @@
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1389" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1389" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1390">
@@ -43832,14 +43832,14 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>江苏盱眙农村商业银行</t>
         </is>
       </c>
       <c r="H1390" t="n">
-        <v>4666.07619</v>
+        <v>101.5883382839</v>
       </c>
       <c r="I1390" t="n">
-        <v>62.13483047485352</v>
+        <v>60.93793449401856</v>
       </c>
     </row>
     <row r="1391">
@@ -44379,14 +44379,14 @@
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1407" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I1407" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="1408">
@@ -44582,14 +44582,14 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>北京银行</t>
+          <t>枣庄银行</t>
         </is>
       </c>
       <c r="H1414" t="n">
-        <v>15244.37</v>
+        <v>137.5292474797</v>
       </c>
       <c r="I1414" t="n">
-        <v>52.02613754272461</v>
+        <v>60.80387344360351</v>
       </c>
     </row>
     <row r="1415">
@@ -44865,14 +44865,14 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>日照银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H1423" t="n">
-        <v>730.7294123319999</v>
+        <v>1262.8263062452</v>
       </c>
       <c r="I1423" t="n">
-        <v>63.6976879119873</v>
+        <v>63.51865386962891</v>
       </c>
     </row>
     <row r="1424">
@@ -44898,14 +44898,14 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>日照银行</t>
+          <t>温州银行</t>
         </is>
       </c>
       <c r="H1424" t="n">
-        <v>730.7294123319999</v>
+        <v>1262.8263062452</v>
       </c>
       <c r="I1424" t="n">
-        <v>63.6976879119873</v>
+        <v>63.51865386962891</v>
       </c>
     </row>
     <row r="1425">
@@ -44964,14 +44964,14 @@
       </c>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1426" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1426" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1427">
@@ -45063,14 +45063,14 @@
       </c>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>哈尔滨银行</t>
+          <t>天津银行</t>
         </is>
       </c>
       <c r="H1429" t="n">
-        <v>3436.41618</v>
+        <v>4788.59079</v>
       </c>
       <c r="I1429" t="n">
-        <v>68.71506195068359</v>
+        <v>69.39429092407227</v>
       </c>
     </row>
     <row r="1430">
@@ -45464,14 +45464,14 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1442" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I1442" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="1443">
@@ -45662,14 +45662,14 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1448" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1448" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1449">
@@ -45945,14 +45945,14 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>珠海华润银行</t>
+          <t>宁夏银行</t>
         </is>
       </c>
       <c r="H1457" t="n">
-        <v>1075.344748607</v>
+        <v>1038.23232</v>
       </c>
       <c r="I1457" t="n">
-        <v>62.39837074279785</v>
+        <v>62.68854522705078</v>
       </c>
     </row>
     <row r="1458">
@@ -45978,14 +45978,14 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>江苏盱眙农村商业银行</t>
         </is>
       </c>
       <c r="H1458" t="n">
-        <v>4666.07619</v>
+        <v>101.5883382839</v>
       </c>
       <c r="I1458" t="n">
-        <v>62.13483047485352</v>
+        <v>60.93793449401856</v>
       </c>
     </row>
     <row r="1459">
@@ -46110,14 +46110,14 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>江苏盱眙农村商业银行</t>
         </is>
       </c>
       <c r="H1462" t="n">
-        <v>4666.07619</v>
+        <v>101.5883382839</v>
       </c>
       <c r="I1462" t="n">
-        <v>62.13483047485352</v>
+        <v>60.93793449401856</v>
       </c>
     </row>
     <row r="1463">
@@ -46242,14 +46242,14 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>珠海华润银行</t>
+          <t>宁夏银行</t>
         </is>
       </c>
       <c r="H1466" t="n">
-        <v>1075.344748607</v>
+        <v>1038.23232</v>
       </c>
       <c r="I1466" t="n">
-        <v>62.39837074279785</v>
+        <v>62.68854522705078</v>
       </c>
     </row>
     <row r="1467">
@@ -46525,14 +46525,14 @@
       </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>徽商银行</t>
         </is>
       </c>
       <c r="H1475" t="n">
-        <v>5541.12618</v>
+        <v>4827.64314</v>
       </c>
       <c r="I1475" t="n">
-        <v>68.65181198120118</v>
+        <v>69.11509628295899</v>
       </c>
     </row>
     <row r="1476">
@@ -47251,14 +47251,14 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>广州农村商业银行</t>
+          <t>江苏盱眙农村商业银行</t>
         </is>
       </c>
       <c r="H1497" t="n">
-        <v>4666.07619</v>
+        <v>101.5883382839</v>
       </c>
       <c r="I1497" t="n">
-        <v>62.13483047485352</v>
+        <v>60.93793449401856</v>
       </c>
     </row>
     <row r="1498">
@@ -47284,14 +47284,14 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>沪农商行</t>
+          <t>南京银行</t>
         </is>
       </c>
       <c r="H1498" t="n">
-        <v>4853.03181</v>
+        <v>5731.50181</v>
       </c>
       <c r="I1498" t="n">
-        <v>41.55971984863281</v>
+        <v>69.04257812500001</v>
       </c>
     </row>
     <row r="1499">
@@ -47567,14 +47567,14 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H1507" t="n">
-        <v>2042.89209</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I1507" t="n">
-        <v>67.95500373840332</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="1508">
@@ -47633,14 +47633,14 @@
       </c>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H1509" t="n">
-        <v>2042.89209</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I1509" t="n">
-        <v>67.95500373840332</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="1510">
@@ -47732,14 +47732,14 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H1512" t="n">
-        <v>2042.89209</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I1512" t="n">
-        <v>67.95500373840332</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="1513">
@@ -47897,14 +47897,14 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1517" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I1517" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="1518">
@@ -48029,14 +48029,14 @@
       </c>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1521" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I1521" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="1522">
@@ -48062,14 +48062,14 @@
       </c>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>吉林银行</t>
         </is>
       </c>
       <c r="H1522" t="n">
-        <v>2042.89209</v>
+        <v>2837.8319964715</v>
       </c>
       <c r="I1522" t="n">
-        <v>67.95500373840332</v>
+        <v>68.11739959716797</v>
       </c>
     </row>
     <row r="1523">
@@ -48095,14 +48095,14 @@
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1523" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1523" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1524">
@@ -48180,14 +48180,14 @@
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1526" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1526" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1527">
@@ -48411,14 +48411,14 @@
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1533" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1533" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1534">
@@ -48642,14 +48642,14 @@
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1540" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1540" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1541">
@@ -48675,14 +48675,14 @@
       </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1541" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1541" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1542">
@@ -48708,14 +48708,14 @@
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>青岛银行</t>
+          <t>郑州银行</t>
         </is>
       </c>
       <c r="H1542" t="n">
-        <v>1561.65941</v>
+        <v>2042.89209</v>
       </c>
       <c r="I1542" t="n">
-        <v>67.51253547668458</v>
+        <v>67.95500373840332</v>
       </c>
     </row>
     <row r="1543">
@@ -48774,14 +48774,14 @@
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>广东南海农村商业银行</t>
+          <t>厦门农村商业银行</t>
         </is>
       </c>
       <c r="H1544" t="n">
-        <v>1205.7176072725</v>
+        <v>625.65008</v>
       </c>
       <c r="I1544" t="n">
-        <v>62.88274269104004</v>
+        <v>63.37616195678711</v>
       </c>
     </row>
     <row r="1545">
@@ -49038,14 +49038,14 @@
       </c>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>重庆银行</t>
+          <t>兰州银行</t>
         </is>
       </c>
       <c r="H1552" t="n">
-        <v>2745.3114517618</v>
+        <v>1551.63386</v>
       </c>
       <c r="I1552" t="n">
-        <v>67.41315841674805</v>
+        <v>66.5081771850586</v>
       </c>
     </row>
     <row r="1553">
@@ -49137,14 +49137,14 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>南京银行</t>
+          <t>哈尔滨银行</t>
         </is>
       </c>
       <c r="H1555" t="n">
-        <v>5731.50181</v>
+        <v>3436.41618</v>
       </c>
       <c r="I1555" t="n">
-        <v>69.04257812500001</v>
+        <v>68.71506195068359</v>
       </c>
     </row>
     <row r="1556">
@@ -49269,14 +49269,14 @@
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>紫金银行</t>
+          <t>日照银行</t>
         </is>
       </c>
       <c r="H1559" t="n">
-        <v>708.06853</v>
+        <v>730.7294123319999</v>
       </c>
       <c r="I1559" t="n">
-        <v>63.83434829711914</v>
+        <v>63.6976879119873</v>
       </c>
     </row>
     <row r="1560">
@@ -49519,14 +49519,14 @@
       </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1567" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1567" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1568">
@@ -49604,14 +49604,14 @@
       </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1570" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1570" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1571">
@@ -49868,14 +49868,14 @@
       </c>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>上海银行</t>
+          <t>安徽休宁农村商业银行</t>
         </is>
       </c>
       <c r="H1578" t="n">
-        <v>11874.52197</v>
+        <v>54.60782564199999</v>
       </c>
       <c r="I1578" t="n">
-        <v>58.810888671875</v>
+        <v>53.61681461334229</v>
       </c>
     </row>
     <row r="1579">
